--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-592276.8694778179</v>
+        <v>-594357.6108711177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365544.372062214</v>
+        <v>2365544.372062216</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>103.5657153741899</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>244.5627323611424</v>
+        <v>97.9126516326713</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>10.69576364311372</v>
@@ -707,7 +707,7 @@
         <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
         <v>223.0311969618593</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.561482739113954</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>82.91097766994945</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>135.1613884042816</v>
       </c>
       <c r="D4" t="n">
-        <v>135.1613884042816</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>212.5562620479447</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.21022140383137</v>
+        <v>76.83283494559419</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852073</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,13 +984,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>125.5628735404864</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>26.50594853071671</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.3870695882591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>142.3870695882588</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9143862661342</v>
+        <v>13.91438626613414</v>
       </c>
       <c r="H8" t="n">
         <v>325.2563498869366</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.65809879609631</v>
+        <v>62.65809879609634</v>
       </c>
       <c r="S8" t="n">
-        <v>177.3830154996371</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0183419716299</v>
+        <v>189.4905710109899</v>
       </c>
       <c r="U8" t="n">
-        <v>28.25416841990059</v>
+        <v>251.2345848079164</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157.8853663825613</v>
+        <v>56.84886199689957</v>
       </c>
       <c r="T9" t="n">
         <v>197.1705887800983</v>
       </c>
       <c r="U9" t="n">
-        <v>124.8560070764656</v>
+        <v>225.8925114621273</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.36692776485288</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>149.2915415772896</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.1634750959351</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>114.4239481384286</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>82.47437332366357</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>160.7259941088632</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>152.981885950135</v>
+        <v>3.727328850455137</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>70.02468195575985</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.0344873527947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>116.8645225501835</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484025</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.025731578087473</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>80.27375167670607</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.01815992141961</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094042</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
         <v>267.8362668557249</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>26.19961814849773</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155368</v>
+        <v>111.958577002889</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>200.1835678092424</v>
@@ -2795,13 +2795,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>60.06480136869346</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094042</v>
+        <v>91.56326686094046</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809756</v>
+        <v>117.1221180746223</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
       <c r="C2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
       <c r="D2" t="n">
-        <v>594.0404807962319</v>
+        <v>136.2159893136353</v>
       </c>
       <c r="E2" t="n">
-        <v>594.0404807962319</v>
+        <v>136.2159893136353</v>
       </c>
       <c r="F2" t="n">
-        <v>489.428647084929</v>
+        <v>129.2704885644318</v>
       </c>
       <c r="G2" t="n">
-        <v>242.3955840938761</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="H2" t="n">
-        <v>242.3955840938761</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="I2" t="n">
         <v>30.36882024860223</v>
@@ -4355,25 +4355,25 @@
         <v>819.3245181314434</v>
       </c>
       <c r="S2" t="n">
-        <v>819.3245181314434</v>
+        <v>608.5330896398997</v>
       </c>
       <c r="T2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
       <c r="U2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
       <c r="V2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
       <c r="W2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
       <c r="X2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
       <c r="Y2" t="n">
-        <v>594.0404807962319</v>
+        <v>383.2490523046882</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.7616903695495</v>
+        <v>597.2215499891838</v>
       </c>
       <c r="C3" t="n">
-        <v>417.7616903695495</v>
+        <v>597.2215499891838</v>
       </c>
       <c r="D3" t="n">
-        <v>268.8272807082982</v>
+        <v>448.2871403279325</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5898257028427</v>
+        <v>289.049685322477</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5898257028427</v>
+        <v>142.515127349362</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5898257028427</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5898257028427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
         <v>19.56501858889139</v>
@@ -4410,19 +4410,19 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>377.8476075409625</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M3" t="n">
-        <v>377.8476075409625</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N3" t="n">
-        <v>481.6032601595283</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O3" t="n">
-        <v>723.7203651970593</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="P3" t="n">
         <v>907.8577401332359</v>
@@ -4431,28 +4431,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S3" t="n">
-        <v>877.5769898880285</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T3" t="n">
-        <v>877.5769898880285</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="U3" t="n">
-        <v>877.5769898880285</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="V3" t="n">
-        <v>793.8285275951503</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="W3" t="n">
-        <v>793.8285275951503</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="X3" t="n">
-        <v>585.9770273896174</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="Y3" t="n">
-        <v>585.9770273896174</v>
+        <v>597.2215499891838</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="C4" t="n">
-        <v>156.0916735427112</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="F4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="G4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="H4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="I4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="J4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="K4" t="n">
-        <v>19.56501858889139</v>
+        <v>839.7847015000262</v>
       </c>
       <c r="L4" t="n">
-        <v>47.85425064936706</v>
+        <v>868.0739335605019</v>
       </c>
       <c r="M4" t="n">
-        <v>88.07040250863014</v>
+        <v>908.290085419765</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7649205860522</v>
+        <v>952.984603497187</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0312465334349</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="P4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="Q4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="R4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="S4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="T4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="U4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="V4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="X4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.0916735427112</v>
+        <v>976.3113564538461</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.2650026197982</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="C5" t="n">
-        <v>255.2650026197982</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="D5" t="n">
-        <v>255.2650026197982</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="E5" t="n">
-        <v>255.2650026197982</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="F5" t="n">
-        <v>40.56170762187421</v>
+        <v>102.8067718054731</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U5" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V5" t="n">
-        <v>787.0670914110444</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W5" t="n">
-        <v>787.0670914110444</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="X5" t="n">
-        <v>521.1660470154213</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.2650026197982</v>
+        <v>375.6533169502994</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>630.5154420583979</v>
+        <v>676.9925000216444</v>
       </c>
       <c r="C6" t="n">
-        <v>456.0624127772709</v>
+        <v>502.5394707405175</v>
       </c>
       <c r="D6" t="n">
-        <v>307.1280031160196</v>
+        <v>353.6050610792662</v>
       </c>
       <c r="E6" t="n">
-        <v>147.8905481105641</v>
+        <v>194.3676060738107</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>47.83304810069566</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>47.83304810069566</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2210505399124</v>
+        <v>30.73231659501201</v>
       </c>
       <c r="L6" t="n">
-        <v>398.824578434775</v>
+        <v>271.3358444898745</v>
       </c>
       <c r="M6" t="n">
-        <v>531.9454581020252</v>
+        <v>531.9454581020244</v>
       </c>
       <c r="N6" t="n">
-        <v>792.5550717141754</v>
+        <v>792.5550717141743</v>
       </c>
       <c r="O6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W6" t="n">
-        <v>798.730779078466</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X6" t="n">
-        <v>798.730779078466</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y6" t="n">
-        <v>798.730779078466</v>
+        <v>845.2078370417125</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="D7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="E7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="F7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="G7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="H7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="I7" t="n">
-        <v>38.68360465423044</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="J7" t="n">
-        <v>38.68360465423044</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706538</v>
+        <v>38.68360465423046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1725.35829645631</v>
+        <v>1707.10614501415</v>
       </c>
       <c r="C8" t="n">
-        <v>1725.35829645631</v>
+        <v>1707.10614501415</v>
       </c>
       <c r="D8" t="n">
-        <v>1367.092597849559</v>
+        <v>1348.840446407399</v>
       </c>
       <c r="E8" t="n">
-        <v>1367.092597849559</v>
+        <v>963.0521938091551</v>
       </c>
       <c r="F8" t="n">
-        <v>956.1066930599517</v>
+        <v>552.0662890195475</v>
       </c>
       <c r="G8" t="n">
         <v>538.0113533971899</v>
@@ -4802,19 +4802,19 @@
         <v>50.93273932624538</v>
       </c>
       <c r="J8" t="n">
-        <v>155.759173916871</v>
+        <v>155.7591739168713</v>
       </c>
       <c r="K8" t="n">
-        <v>433.6116301659918</v>
+        <v>433.6116301659922</v>
       </c>
       <c r="L8" t="n">
-        <v>830.5887990800943</v>
+        <v>830.5887990800948</v>
       </c>
       <c r="M8" t="n">
         <v>1288.908934281618</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.013170883838</v>
+        <v>1740.013170883839</v>
       </c>
       <c r="O8" t="n">
         <v>2120.790471866538</v>
@@ -4829,25 +4829,25 @@
         <v>2483.345957427323</v>
       </c>
       <c r="S8" t="n">
-        <v>2304.171194296376</v>
+        <v>2483.345957427323</v>
       </c>
       <c r="T8" t="n">
-        <v>2084.960747860386</v>
+        <v>2291.941340244505</v>
       </c>
       <c r="U8" t="n">
-        <v>2056.421183799881</v>
+        <v>2038.16903235772</v>
       </c>
       <c r="V8" t="n">
-        <v>1725.35829645631</v>
+        <v>1707.10614501415</v>
       </c>
       <c r="W8" t="n">
-        <v>1725.35829645631</v>
+        <v>1707.10614501415</v>
       </c>
       <c r="X8" t="n">
-        <v>1725.35829645631</v>
+        <v>1707.10614501415</v>
       </c>
       <c r="Y8" t="n">
-        <v>1725.35829645631</v>
+        <v>1707.10614501415</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>50.93273932624538</v>
       </c>
       <c r="J9" t="n">
-        <v>119.6732659524492</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="K9" t="n">
-        <v>363.7826179014332</v>
+        <v>295.0420912752294</v>
       </c>
       <c r="L9" t="n">
-        <v>753.4221628487735</v>
+        <v>684.6816362225698</v>
       </c>
       <c r="M9" t="n">
-        <v>1260.092355332587</v>
+        <v>1191.351828706383</v>
       </c>
       <c r="N9" t="n">
-        <v>1795.879613554694</v>
+        <v>1727.13908692849</v>
       </c>
       <c r="O9" t="n">
-        <v>2219.604602039586</v>
+        <v>2150.864075413382</v>
       </c>
       <c r="P9" t="n">
-        <v>2542.678193876169</v>
+        <v>2473.937667249965</v>
       </c>
       <c r="Q9" t="n">
         <v>2546.636966312269</v>
@@ -4908,10 +4908,10 @@
         <v>2546.636966312269</v>
       </c>
       <c r="S9" t="n">
-        <v>2387.156798249076</v>
+        <v>2489.213873386107</v>
       </c>
       <c r="T9" t="n">
-        <v>2187.994587360087</v>
+        <v>2290.051662497119</v>
       </c>
       <c r="U9" t="n">
         <v>2061.87740849497</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="C10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="D10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="E10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="F10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="G10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="H10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
       <c r="I10" t="n">
         <v>50.93273932624538</v>
@@ -4966,46 +4966,46 @@
         <v>100.5165538294666</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4931998867074</v>
+        <v>219.4931998867073</v>
       </c>
       <c r="M10" t="n">
-        <v>355.3265144918564</v>
+        <v>355.3265144918563</v>
       </c>
       <c r="N10" t="n">
-        <v>493.3646328999343</v>
+        <v>493.3646328999342</v>
       </c>
       <c r="O10" t="n">
-        <v>604.8488818521907</v>
+        <v>604.8488818521905</v>
       </c>
       <c r="P10" t="n">
-        <v>676.7222341011087</v>
+        <v>676.7222341011084</v>
       </c>
       <c r="Q10" t="n">
-        <v>676.7222341011087</v>
+        <v>676.7222341011084</v>
       </c>
       <c r="R10" t="n">
-        <v>525.9226971543516</v>
+        <v>676.7222341011084</v>
       </c>
       <c r="S10" t="n">
-        <v>310.606055643306</v>
+        <v>676.7222341011084</v>
       </c>
       <c r="T10" t="n">
-        <v>310.606055643306</v>
+        <v>676.7222341011084</v>
       </c>
       <c r="U10" t="n">
-        <v>310.606055643306</v>
+        <v>676.7222341011084</v>
       </c>
       <c r="V10" t="n">
-        <v>310.606055643306</v>
+        <v>561.1424885067361</v>
       </c>
       <c r="W10" t="n">
-        <v>310.606055643306</v>
+        <v>271.7253184697755</v>
       </c>
       <c r="X10" t="n">
-        <v>82.61650474528869</v>
+        <v>271.7253184697755</v>
       </c>
       <c r="Y10" t="n">
-        <v>82.61650474528869</v>
+        <v>50.93273932624538</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.9727323706985</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323706985</v>
+        <v>180.5245392619662</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>180.5245392619662</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>180.5245392619662</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>180.5245392619662</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>180.5245392619662</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1136.646771474603</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>881.9622832687159</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>881.9622832687159</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>653.9727323706985</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.9727323706985</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5373,7 +5373,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>399.657342568068</v>
+        <v>677.999939105308</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>674.2349604684847</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>674.2349604684847</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684847</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W16" t="n">
-        <v>809.295358296325</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X16" t="n">
-        <v>581.3058073983077</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.3058073983077</v>
+        <v>677.999939105308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5516,13 +5516,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.666285013068</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7301020851612</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1428.184268582387</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1428.184268582387</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1139.055629795946</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>884.3711415900588</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>594.9539715530982</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>594.9539715530982</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.666285013068</v>
+        <v>594.9539715530982</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,22 +5768,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>215.2620637331985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>727.6476863320731</v>
       </c>
       <c r="X22" t="n">
-        <v>954.8146123150548</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.0220331715246</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2311824243143</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="C25" t="n">
-        <v>251.8819545901977</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="D25" t="n">
-        <v>251.8819545901977</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="E25" t="n">
-        <v>251.8819545901977</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="F25" t="n">
-        <v>246.805458046675</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422079</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968145</v>
+        <v>851.9322746968148</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6163,34 +6163,34 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="R25" t="n">
-        <v>1552.164719712909</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="S25" t="n">
-        <v>1552.164719712909</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1552.164719712909</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U25" t="n">
-        <v>1281.623036020258</v>
+        <v>987.5796692572804</v>
       </c>
       <c r="V25" t="n">
-        <v>1045.525502908161</v>
+        <v>751.4821361451839</v>
       </c>
       <c r="W25" t="n">
-        <v>774.6952879649907</v>
+        <v>480.6519212020135</v>
       </c>
       <c r="X25" t="n">
-        <v>565.2926921607636</v>
+        <v>271.2493253977864</v>
       </c>
       <c r="Y25" t="n">
-        <v>565.2926921607636</v>
+        <v>271.2493253977864</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>683.4516233595157</v>
+        <v>621.9333755233204</v>
       </c>
       <c r="C28" t="n">
-        <v>533.1023955253989</v>
+        <v>471.5841476892037</v>
       </c>
       <c r="D28" t="n">
-        <v>401.5727112068535</v>
+        <v>471.5841476892037</v>
       </c>
       <c r="E28" t="n">
-        <v>375.108450450795</v>
+        <v>471.5841476892037</v>
       </c>
       <c r="F28" t="n">
-        <v>246.805458046675</v>
+        <v>471.5841476892037</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>321.9957811028146</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116197</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436549</v>
+        <v>296.219337543655</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422079</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968145</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P28" t="n">
         <v>1587.602350397713</v>
@@ -6406,28 +6406,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T28" t="n">
-        <v>1258.121352949932</v>
+        <v>1257.742193002161</v>
       </c>
       <c r="U28" t="n">
-        <v>1258.121352949932</v>
+        <v>987.2005093095097</v>
       </c>
       <c r="V28" t="n">
-        <v>1258.121352949932</v>
+        <v>987.2005093095097</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.121352949932</v>
+        <v>987.2005093095097</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.718757145705</v>
+        <v>987.2005093095097</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.513133095965</v>
+        <v>784.9948852597698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.8886079943198</v>
+        <v>711.1545963140832</v>
       </c>
       <c r="C31" t="n">
-        <v>157.8886079943198</v>
+        <v>711.1545963140832</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8886079943198</v>
+        <v>579.6249119955377</v>
       </c>
       <c r="E31" t="n">
-        <v>157.8886079943198</v>
+        <v>450.2987735069348</v>
       </c>
       <c r="F31" t="n">
-        <v>157.8886079943198</v>
+        <v>321.9957811028147</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>321.9957811028147</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>127.8168586116196</v>
@@ -6625,46 +6625,46 @@
         <v>296.2193375436549</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422082</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968151</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1552.164719712909</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.164719712909</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T31" t="n">
-        <v>1346.966259596205</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="U31" t="n">
-        <v>1076.424575903554</v>
+        <v>1100.289981029599</v>
       </c>
       <c r="V31" t="n">
-        <v>840.3270427914571</v>
+        <v>981.9848112572536</v>
       </c>
       <c r="W31" t="n">
-        <v>569.4968278482867</v>
+        <v>711.1545963140832</v>
       </c>
       <c r="X31" t="n">
-        <v>360.0942320440597</v>
+        <v>711.1545963140832</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.8886079943198</v>
+        <v>711.1545963140832</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,13 +6971,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7020,19 +7020,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,46 +7178,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,64 +7543,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7734,7 +7734,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7831,13 +7831,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1317786452013</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>234.0901525809383</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2788254813443</v>
+        <v>314.8542402232538</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>139.6188569073246</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>264.0572753751425</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808121</v>
+        <v>381.7094952808119</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368072</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868109</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>56.65615996040505</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.15850139331617</v>
+        <v>118.5933767733207</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>145.2351313103792</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>297.2466435761031</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>180.0237016735875</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>127.6461250100651</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.43945504387256</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.5113582897142</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>14.26493514849281</v>
+        <v>163.5194922481727</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>127.8961280278434</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.55016599930011</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>32.0493058173526</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>61.34209567542547</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
@@ -24373,16 +24373,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>121.9942309019914</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246837</v>
+        <v>50.23899114797769</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141961</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094042</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>101.833258955219</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246837</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141961</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094042</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>91.18789851264788</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557249</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>88.02768155183179</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246837</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141961</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>116.6144397063534</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -26314,13 +26314,13 @@
         <v>246312.530959285</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426253</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
         <v>234617.4358426251</v>
@@ -26329,7 +26329,7 @@
         <v>234617.4358426251</v>
       </c>
       <c r="H2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="I2" t="n">
         <v>237776.0513641374</v>
@@ -26341,10 +26341,10 @@
         <v>237776.0513641374</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592851</v>
@@ -26353,7 +26353,7 @@
         <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592851</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189539</v>
+        <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>392050.2114169283</v>
+        <v>392050.2114169285</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.1991553667</v>
+        <v>562418.1991553669</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428191</v>
+        <v>14720.86843428193</v>
       </c>
       <c r="J3" t="n">
         <v>63988.37154589882</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750099</v>
+        <v>4807.454491750026</v>
       </c>
       <c r="L3" t="n">
-        <v>134293.1781648038</v>
+        <v>134293.1781648039</v>
       </c>
       <c r="M3" t="n">
         <v>144178.0711151428</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428189</v>
+        <v>14720.86843428187</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319655.8297120241</v>
+        <v>319655.8297120242</v>
       </c>
       <c r="C4" t="n">
-        <v>312850.0144568523</v>
+        <v>312850.0144568525</v>
       </c>
       <c r="D4" t="n">
         <v>195179.762782659</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773397</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="H4" t="n">
-        <v>36432.483517734</v>
-      </c>
       <c r="I4" t="n">
-        <v>42487.35768913287</v>
+        <v>42487.35768913282</v>
       </c>
       <c r="J4" t="n">
-        <v>42487.35768913283</v>
+        <v>42487.35768913277</v>
       </c>
       <c r="K4" t="n">
-        <v>42487.35768913283</v>
+        <v>42487.35768913275</v>
       </c>
       <c r="L4" t="n">
-        <v>58851.27075905449</v>
+        <v>58851.27075905444</v>
       </c>
       <c r="M4" t="n">
+        <v>58851.27075905445</v>
+      </c>
+      <c r="N4" t="n">
+        <v>58851.27075905442</v>
+      </c>
+      <c r="O4" t="n">
         <v>58851.27075905443</v>
       </c>
-      <c r="N4" t="n">
-        <v>58851.2707590544</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58851.27075905441</v>
-      </c>
       <c r="P4" t="n">
-        <v>58851.27075905442</v>
+        <v>58851.27075905443</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
         <v>79865.16362346616</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.28680921867</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.2868092187</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.2868092187</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-207419.1816925783</v>
       </c>
       <c r="C6" t="n">
-        <v>-140317.2310862961</v>
+        <v>-140317.2310862959</v>
       </c>
       <c r="D6" t="n">
-        <v>-420782.6068637684</v>
+        <v>-420782.6068637687</v>
       </c>
       <c r="E6" t="n">
-        <v>-456220.572779192</v>
+        <v>-456318.0319051644</v>
       </c>
       <c r="F6" t="n">
-        <v>106197.6263761746</v>
+        <v>106100.1672502024</v>
       </c>
       <c r="G6" t="n">
-        <v>106197.6263761746</v>
+        <v>106100.1672502023</v>
       </c>
       <c r="H6" t="n">
-        <v>106197.6263761744</v>
+        <v>106100.1672502025</v>
       </c>
       <c r="I6" t="n">
-        <v>87033.5384315039</v>
+        <v>86962.40110154435</v>
       </c>
       <c r="J6" t="n">
-        <v>37766.03531988706</v>
+        <v>37694.89798992751</v>
       </c>
       <c r="K6" t="n">
-        <v>96946.9523740358</v>
+        <v>96875.81504407634</v>
       </c>
       <c r="L6" t="n">
-        <v>-44547.02378459857</v>
+        <v>-44547.02378459876</v>
       </c>
       <c r="M6" t="n">
-        <v>-54431.91673493756</v>
+        <v>-54431.91673493761</v>
       </c>
       <c r="N6" t="n">
-        <v>75025.28594592339</v>
+        <v>75025.2859459234</v>
       </c>
       <c r="O6" t="n">
-        <v>89746.15438020526</v>
+        <v>89746.15438020525</v>
       </c>
       <c r="P6" t="n">
-        <v>89746.15438020535</v>
+        <v>89746.15438020525</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>345.3523731889762</v>
+        <v>345.3523731889761</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
         <v>636.6592415780672</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285242</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678828</v>
+        <v>49.73080458678834</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3395197935473</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>322.3389905021866</v>
+        <v>322.3389905021867</v>
       </c>
       <c r="E3" t="n">
-        <v>485.030032265124</v>
+        <v>485.0300322651242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>373.4172076264003</v>
+        <v>373.4172076264006</v>
       </c>
       <c r="E4" t="n">
         <v>578.5544016755059</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611427</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264001</v>
+        <v>373.4172076264003</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755061</v>
+        <v>578.5544016755059</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285242</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076264003</v>
+        <v>373.4172076264006</v>
       </c>
       <c r="M4" t="n">
         <v>578.5544016755059</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>110.1203092595405</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>303.3103303675216</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>170.7252358559293</v>
+        <v>317.3753165844005</v>
       </c>
       <c r="H2" t="n">
         <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>127.7741321529678</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1328769967189</v>
@@ -27515,16 +27515,16 @@
         <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>149.8896094794758</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>32.0854326943462</v>
       </c>
       <c r="D4" t="n">
-        <v>13.45408461393075</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.3197836937667</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>338.3773864582372</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27673,16 +27673,16 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4890667268022</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.9959047043867</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>19.50633885289743</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>85.25142524656928</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>11.81540091395161</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
@@ -27828,7 +27828,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>143.9296961568203</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>177.3830154996371</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>27.52777096063994</v>
       </c>
       <c r="U8" t="n">
-        <v>222.9804163880158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.0370021256323</v>
+        <v>54.03700212563231</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>101.0365043856617</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>101.0365043856617</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.6902115077868</v>
       </c>
       <c r="I10" t="n">
-        <v>105.3552578097967</v>
+        <v>136.7221855746496</v>
       </c>
       <c r="J10" t="n">
-        <v>49.3295832922356</v>
+        <v>49.32958329223562</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.01383490015898</v>
+        <v>34.013834900159</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>149.2915415772896</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>213.1634750959351</v>
       </c>
       <c r="T10" t="n">
         <v>225.284677700432</v>
@@ -28068,16 +28068,16 @@
         <v>286.2850602706034</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>137.7136951853994</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285237</v>
       </c>
     </row>
     <row r="26">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="29">
@@ -29515,13 +29515,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285239</v>
+        <v>18.40108554285233</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471433</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>1.388351249000908</v>
       </c>
       <c r="H8" t="n">
-        <v>14.21845222883056</v>
+        <v>14.21845222883055</v>
       </c>
       <c r="I8" t="n">
-        <v>53.52441152710757</v>
+        <v>53.52441152710755</v>
       </c>
       <c r="J8" t="n">
         <v>117.8345768198909</v>
       </c>
       <c r="K8" t="n">
-        <v>176.6034851900994</v>
+        <v>176.6034851900993</v>
       </c>
       <c r="L8" t="n">
-        <v>219.092239726711</v>
+        <v>219.0922397267109</v>
       </c>
       <c r="M8" t="n">
-        <v>243.7823312511309</v>
+        <v>243.7823312511308</v>
       </c>
       <c r="N8" t="n">
         <v>247.7269842373547</v>
       </c>
       <c r="O8" t="n">
-        <v>233.921566505102</v>
+        <v>233.9215665051019</v>
       </c>
       <c r="P8" t="n">
-        <v>199.646645045392</v>
+        <v>199.6466450453919</v>
       </c>
       <c r="Q8" t="n">
         <v>149.9263159405469</v>
       </c>
       <c r="R8" t="n">
-        <v>87.21101914505337</v>
+        <v>87.21101914505334</v>
       </c>
       <c r="S8" t="n">
-        <v>31.63705408660823</v>
+        <v>31.63705408660822</v>
       </c>
       <c r="T8" t="n">
-        <v>6.077507592501479</v>
+        <v>6.077507592501477</v>
       </c>
       <c r="U8" t="n">
         <v>0.1110680999200726</v>
@@ -31592,28 +31592,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7428334064819487</v>
+        <v>0.7428334064819485</v>
       </c>
       <c r="H9" t="n">
-        <v>7.174206846812506</v>
+        <v>7.174206846812504</v>
       </c>
       <c r="I9" t="n">
-        <v>25.57562386352324</v>
+        <v>25.57562386352323</v>
       </c>
       <c r="J9" t="n">
-        <v>70.18146670626167</v>
+        <v>70.18146670626165</v>
       </c>
       <c r="K9" t="n">
         <v>119.9513049405522</v>
       </c>
       <c r="L9" t="n">
-        <v>161.2893324030214</v>
+        <v>161.2893324030213</v>
       </c>
       <c r="M9" t="n">
-        <v>188.217043387992</v>
+        <v>188.2170433879919</v>
       </c>
       <c r="N9" t="n">
-        <v>193.1985884691802</v>
+        <v>193.1985884691801</v>
       </c>
       <c r="O9" t="n">
         <v>176.7389640413433</v>
@@ -31622,19 +31622,19 @@
         <v>141.8486002254872</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.82203272916946</v>
+        <v>94.82203272916944</v>
       </c>
       <c r="R9" t="n">
-        <v>46.12083202701083</v>
+        <v>46.12083202701082</v>
       </c>
       <c r="S9" t="n">
-        <v>13.79780472127654</v>
+        <v>13.79780472127653</v>
       </c>
       <c r="T9" t="n">
-        <v>2.994139914723292</v>
+        <v>2.994139914723291</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04887061884749665</v>
+        <v>0.04887061884749663</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6227665746030717</v>
+        <v>0.6227665746030715</v>
       </c>
       <c r="H10" t="n">
-        <v>5.536960999652769</v>
+        <v>5.536960999652767</v>
       </c>
       <c r="I10" t="n">
         <v>18.72828935260874</v>
       </c>
       <c r="J10" t="n">
-        <v>44.02959682443717</v>
+        <v>44.02959682443716</v>
       </c>
       <c r="K10" t="n">
-        <v>72.35415294024777</v>
+        <v>72.35415294024774</v>
       </c>
       <c r="L10" t="n">
-        <v>92.58840510053307</v>
+        <v>92.58840510053302</v>
       </c>
       <c r="M10" t="n">
-        <v>97.62149132618876</v>
+        <v>97.62149132618873</v>
       </c>
       <c r="N10" t="n">
-        <v>95.30027045721376</v>
+        <v>95.30027045721373</v>
       </c>
       <c r="O10" t="n">
-        <v>88.02522456298693</v>
+        <v>88.02522456298691</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32078644108421</v>
+        <v>75.32078644108418</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.1482083515354</v>
+        <v>52.14820835153538</v>
       </c>
       <c r="R10" t="n">
-        <v>28.00184979987993</v>
+        <v>28.00184979987992</v>
       </c>
       <c r="S10" t="n">
         <v>10.85312294103716</v>
       </c>
       <c r="T10" t="n">
-        <v>2.660911727849487</v>
+        <v>2.660911727849486</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03396908588744031</v>
+        <v>0.0339690858874403</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>104.8036895137028</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611424</v>
+        <v>174.138147103052</v>
       </c>
       <c r="P3" t="n">
-        <v>185.9973484203803</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>71.10423162760989</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.6170405889699</v>
+        <v>9.770660483715838</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>134.4655350174245</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833254</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>280.6590467162836</v>
       </c>
       <c r="L8" t="n">
-        <v>400.9870393071742</v>
+        <v>400.9870393071741</v>
       </c>
       <c r="M8" t="n">
-        <v>462.9496315166907</v>
+        <v>462.9496315166906</v>
       </c>
       <c r="N8" t="n">
-        <v>455.660845052748</v>
+        <v>455.6608450527479</v>
       </c>
       <c r="O8" t="n">
-        <v>384.6235363461606</v>
+        <v>384.6235363461605</v>
       </c>
       <c r="P8" t="n">
         <v>290.2123574616051</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.43487538000382</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>246.5751029787718</v>
@@ -35261,16 +35261,16 @@
         <v>511.7880732159736</v>
       </c>
       <c r="N9" t="n">
-        <v>541.1992507294004</v>
+        <v>541.1992507294003</v>
       </c>
       <c r="O9" t="n">
-        <v>428.0050388736284</v>
+        <v>428.0050388736283</v>
       </c>
       <c r="P9" t="n">
         <v>326.3369614510941</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.998760036464121</v>
+        <v>73.43363541646859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08466111436492</v>
+        <v>50.08466111436489</v>
       </c>
       <c r="L10" t="n">
         <v>120.1784303608492</v>
@@ -35340,13 +35340,13 @@
         <v>137.2053682880293</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4324428364424</v>
+        <v>139.4324428364423</v>
       </c>
       <c r="O10" t="n">
         <v>112.6103524770266</v>
       </c>
       <c r="P10" t="n">
-        <v>72.5993457059777</v>
+        <v>72.59934570597767</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>394.4928362664036</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36528,7 +36528,7 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P25" t="n">
         <v>196.7846861546531</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>579.6103458172112</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841791</v>
+        <v>30.90885570841788</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472713</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841791</v>
+        <v>30.90885570841786</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37008,7 +37008,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2814066296118</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7395399415897</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>354.1326152325992</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
